--- a/hw/Master BOM.xlsx
+++ b/hw/Master BOM.xlsx
@@ -1,15 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duggerd\Documents\Git\duggerd_KFDtool\hw\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2690AA-2B46-41F5-A6FD-8C31B754718F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="290">
   <si>
     <t>Description</t>
   </si>
@@ -867,12 +863,39 @@
   </si>
   <si>
     <t>S2KCACT-ND</t>
+  </si>
+  <si>
+    <t>BlueMax49ers</t>
+  </si>
+  <si>
+    <t>KPG-36z</t>
+  </si>
+  <si>
+    <t>AC109A</t>
+  </si>
+  <si>
+    <t>RNMF14FTC20K0</t>
+  </si>
+  <si>
+    <t>RES 20K OHM 1/4W 1% AXIAL</t>
+  </si>
+  <si>
+    <t>S20KCACT-ND</t>
+  </si>
+  <si>
+    <t>QD-MA5</t>
+  </si>
+  <si>
+    <t>Quick Disconnect Adaptor for Harris</t>
+  </si>
+  <si>
+    <t>TAPaulk Communications, LLC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1221,11 +1244,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I138"/>
+  <dimension ref="A1:I142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4414,10 +4437,10 @@
         <v>22</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>22</v>
+        <v>281</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>22</v>
+        <v>282</v>
       </c>
       <c r="E125" s="2">
         <v>1</v>
@@ -4722,6 +4745,77 @@
         <v>22</v>
       </c>
     </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B140" s="6"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="3"/>
+      <c r="I140" s="3"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E141" s="2">
+        <v>1</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>288</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C142" t="s">
+        <v>289</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E142" s="2">
+        <v>1</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>
